--- a/Group02LogYYMMDD.xlsx
+++ b/Group02LogYYMMDD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
   <si>
     <t>Team Name:</t>
   </si>
@@ -194,6 +194,9 @@
     <t>today meeting</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Decision</t>
   </si>
   <si>
@@ -203,29 +206,47 @@
     <t>Meeting</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Type </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(task,change)</t>
-    </r>
+    <t>Change</t>
   </si>
   <si>
     <t>restructure roles</t>
+  </si>
+  <si>
+    <t>Clean up directory</t>
+  </si>
+  <si>
+    <t>Add Distance.java</t>
+  </si>
+  <si>
+    <t>Add ReadExcel.java</t>
+  </si>
+  <si>
+    <t>Add RBbst and hashing to ReadExcel.java</t>
+  </si>
+  <si>
+    <t>2XB3_FinalProjectMeeting_2.docx</t>
+  </si>
+  <si>
+    <t>2XB3_FinalProjectMeeting_3.docx</t>
+  </si>
+  <si>
+    <t>2XB3_FinalProjectMeeting_1.docx</t>
+  </si>
+  <si>
+    <t>180313T04:30</t>
+  </si>
+  <si>
+    <t>180313T04:00</t>
+  </si>
+  <si>
+    <t>180311T21:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -293,13 +314,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -682,18 +696,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A15C54-8F13-2D4C-890E-360418F7A3F6}">
   <dimension ref="A1:G320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -822,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -845,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
@@ -866,7 +880,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
@@ -887,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
@@ -908,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
@@ -929,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
@@ -950,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
@@ -971,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
@@ -990,14 +1004,18 @@
         <v>20</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
@@ -1005,14 +1023,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
@@ -1020,94 +1042,145 @@
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F22" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F23" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="B24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="B25" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.25">

--- a/Group02LogYYMMDD.xlsx
+++ b/Group02LogYYMMDD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>Team Name:</t>
   </si>
@@ -99,22 +99,13 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>180213T18:30</t>
-  </si>
-  <si>
     <t>Domain</t>
   </si>
   <si>
     <t>Requirement_Specification.pdf</t>
   </si>
   <si>
-    <t>180217T11:00</t>
-  </si>
-  <si>
     <t>Non-Functional Requirements</t>
-  </si>
-  <si>
-    <t>180221T09:00</t>
   </si>
   <si>
     <t>Functional Requirements</t>
@@ -167,12 +158,6 @@
     <t>Restructure team (Graeme: project log, Eoin: meeting minutes)</t>
   </si>
   <si>
-    <t>18____</t>
-  </si>
-  <si>
-    <t>Thode Meeting</t>
-  </si>
-  <si>
     <t>Team Members</t>
   </si>
   <si>
@@ -182,18 +167,6 @@
     <t>Role(s)</t>
   </si>
   <si>
-    <t>Pinks Meeting</t>
-  </si>
-  <si>
-    <t>set up thode meeting</t>
-  </si>
-  <si>
-    <t>set up today meeting</t>
-  </si>
-  <si>
-    <t>today meeting</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -240,6 +213,60 @@
   </si>
   <si>
     <t>180311T21:00</t>
+  </si>
+  <si>
+    <t>180305T4:00</t>
+  </si>
+  <si>
+    <t>180303T21:00</t>
+  </si>
+  <si>
+    <t>Requirements Meeting</t>
+  </si>
+  <si>
+    <t>2XB3_FinalProjectMeeting_4.docx</t>
+  </si>
+  <si>
+    <t>180225T09:00</t>
+  </si>
+  <si>
+    <t>180225T11:00</t>
+  </si>
+  <si>
+    <t>180225T18:30</t>
+  </si>
+  <si>
+    <t>Project Plan Meeting</t>
+  </si>
+  <si>
+    <t>Backend Implementation meeting</t>
+  </si>
+  <si>
+    <t>Organize Backend Implementation meeting</t>
+  </si>
+  <si>
+    <t>Github Meeting</t>
+  </si>
+  <si>
+    <t>Organize Github Meeting</t>
+  </si>
+  <si>
+    <t>180224T12:00</t>
+  </si>
+  <si>
+    <t> Group02ProjectPlan.docx</t>
+  </si>
+  <si>
+    <t>180207T14:30</t>
+  </si>
+  <si>
+    <t>180207T17:00</t>
+  </si>
+  <si>
+    <t>Project Plan</t>
+  </si>
+  <si>
+    <t>180306T4:00</t>
   </si>
 </sst>
 </file>
@@ -395,6 +422,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="AutoShape 2" descr="https://s.brightspace.com/lib/bsi/10.7.10-daylight.14/images/tier1/file-document.svg">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Open  Group02ProjectPlan.docx"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD0C531-4CB8-354C-BA6E-DF789FAEA6E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9855200" y="6502400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A15C54-8F13-2D4C-890E-360418F7A3F6}">
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -728,7 +809,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -736,29 +817,29 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -772,7 +853,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
       <c r="F6" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -786,7 +867,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="8"/>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -800,7 +881,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
       <c r="F8" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -830,13 +911,13 @@
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -852,39 +933,39 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>19</v>
+      <c r="A13" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>22</v>
@@ -894,193 +975,200 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>26</v>
+      <c r="A15" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
+      <c r="A17" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>48</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>43</v>
+      <c r="A19" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>45</v>
+      <c r="A20" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12" t="s">
@@ -1089,116 +1177,141 @@
       <c r="F24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="B28" s="12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="B29" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -2272,8 +2385,8 @@
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="12"/>
+    <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
@@ -3802,7 +3915,19 @@
       <c r="F320" s="12"/>
       <c r="G320" s="12"/>
     </row>
+    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="12"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
+      <c r="F321" s="12"/>
+      <c r="G321" s="12"/>
+    </row>
   </sheetData>
+  <sortState ref="A13:G31">
+    <sortCondition ref="A13:A31"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
@@ -3812,5 +3937,6 @@
     <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Group02LogYYMMDD.xlsx
+++ b/Group02LogYYMMDD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t xml:space="preserve">Team Name:</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t xml:space="preserve">180320T14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed</t>
   </si>
   <si>
     <t xml:space="preserve">180320T09:31</t>
@@ -621,9 +624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>202680</xdr:colOff>
+      <xdr:colOff>202320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -634,8 +637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8982000" y="3060720"/>
-          <a:ext cx="202680" cy="202680"/>
+          <a:off x="8858160" y="3060720"/>
+          <a:ext cx="202320" cy="202320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,19 +667,19 @@
   </sheetPr>
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.6428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,13 +1381,15 @@
         <v>33</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>22</v>
@@ -1394,16 +1399,16 @@
         <v>21</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>14</v>
@@ -1413,16 +1418,16 @@
         <v>22</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>20</v>
@@ -1435,13 +1440,13 @@
         <v>34</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>32</v>
@@ -1456,13 +1461,13 @@
         <v>34</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>70</v>
@@ -1474,31 +1479,33 @@
         <v>26</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>22</v>
@@ -1508,16 +1515,16 @@
         <v>27</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>14</v>
@@ -1530,13 +1537,13 @@
         <v>34</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>20</v>
@@ -1544,16 +1551,16 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>22</v>
@@ -1566,13 +1573,13 @@
         <v>34</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>22</v>
@@ -1587,16 +1594,16 @@
         <v>34</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>63</v>
@@ -1608,19 +1615,19 @@
         <v>34</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
